--- a/with logs for unschedule with saturday sunday/excel_schedules/room_213_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_213_genetic_schedule.xlsx
@@ -651,7 +651,28 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>BA 418 - Business Analytics
 3C
@@ -659,35 +680,13 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
+      <c r="B25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -695,6 +694,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
